--- a/REGULAR/OJT/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/OJT/MALUBAY, MELINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAEC332-EB6D-4ABF-9D9F-0F1CB92E6FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -958,7 +957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1833,7 +1832,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1875,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1939,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +1999,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2065,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2128,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2226,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2285,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2350,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2393,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2468,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2654,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2720,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2778,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2844,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2900,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2975,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3018,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3084,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3140,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3238,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3301,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3350,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3368,25 +3367,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3398,13 +3397,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3413,14 +3412,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3724,7 +3723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3734,7 +3733,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3742,34 +3741,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A573" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A573" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
+      <selection pane="bottomLeft" activeCell="I576" sqref="I576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3789,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3834,7 +3833,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3842,7 +3841,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3855,7 +3854,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3872,7 +3871,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3916,7 +3915,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.76400000000001</v>
+        <v>199.01400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3926,12 +3925,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.87599999999998</v>
+        <v>104.12599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -3946,7 +3945,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33619</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>33635</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>33664</v>
@@ -4007,7 +4006,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A81" si="0">EDATE(A13,1)</f>
         <v>33695</v>
@@ -4028,7 +4027,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -4049,7 +4048,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -4070,7 +4069,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -4091,7 +4090,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -4112,7 +4111,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -4133,7 +4132,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -4154,7 +4153,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -4175,7 +4174,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -4196,7 +4195,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>42</v>
       </c>
@@ -4214,7 +4213,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>33970</v>
@@ -4235,7 +4234,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>34001</v>
@@ -4256,7 +4255,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>34029</v>
@@ -4277,7 +4276,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -4298,7 +4297,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -4319,7 +4318,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -4340,7 +4339,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -4361,7 +4360,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -4382,7 +4381,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -4403,7 +4402,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -4424,7 +4423,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -4445,7 +4444,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4470,7 +4469,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>43</v>
       </c>
@@ -4488,7 +4487,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>34335</v>
@@ -4509,7 +4508,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -4530,7 +4529,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -4551,7 +4550,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -4572,7 +4571,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A40,1)</f>
         <v>34455</v>
@@ -4593,7 +4592,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -4614,7 +4613,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -4635,7 +4634,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -4656,7 +4655,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -4677,7 +4676,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -4700,7 +4699,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4723,7 +4722,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4748,7 +4747,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>44</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>34700</v>
@@ -4787,7 +4786,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -4808,7 +4807,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -4829,7 +4828,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4852,7 +4851,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4879,7 +4878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4906,7 +4905,7 @@
         <v>34548</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4927,7 +4926,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4948,7 +4947,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4969,7 +4968,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4990,7 +4989,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -5011,7 +5010,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="49"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -5032,7 +5031,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>45</v>
       </c>
@@ -5050,7 +5049,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>35065</v>
@@ -5071,7 +5070,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -5092,7 +5091,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -5113,7 +5112,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -5134,7 +5133,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -5155,7 +5154,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -5176,7 +5175,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -5203,7 +5202,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -5224,7 +5223,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -5245,7 +5244,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -5268,7 +5267,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -5293,7 +5292,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -5318,7 +5317,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>46</v>
       </c>
@@ -5336,7 +5335,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>35431</v>
@@ -5363,7 +5362,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -5390,7 +5389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -5415,7 +5414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -5440,7 +5439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -5467,7 +5466,7 @@
         <v>35573</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -5494,7 +5493,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>75</v>
@@ -5516,7 +5515,7 @@
         <v>35608</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>35612</v>
@@ -5543,7 +5542,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>75</v>
@@ -5565,7 +5564,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>35643</v>
@@ -5586,7 +5585,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A179" si="1">EDATE(A85,1)</f>
         <v>35674</v>
@@ -5607,7 +5606,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -5628,7 +5627,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -5655,7 +5654,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -5680,7 +5679,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>47</v>
       </c>
@@ -5698,7 +5697,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>35796</v>
@@ -5719,7 +5718,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -5746,7 +5745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -5767,7 +5766,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -5788,7 +5787,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -5809,7 +5808,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -5836,7 +5835,7 @@
         <v>35949</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5863,7 +5862,7 @@
         <v>35990</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>75</v>
@@ -5885,7 +5884,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36008</v>
@@ -5906,7 +5905,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -5933,7 +5932,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5960,7 +5959,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -5985,7 +5984,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -6012,7 +6011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>85</v>
@@ -6032,7 +6031,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="49"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>89</v>
@@ -6052,7 +6051,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>48</v>
       </c>
@@ -6070,7 +6069,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A103,1)</f>
         <v>36161</v>
@@ -6097,7 +6096,7 @@
         <v>36164</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -6118,7 +6117,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -6145,7 +6144,7 @@
         <v>36230</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>81</v>
@@ -6165,7 +6164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>91</v>
@@ -6185,7 +6184,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A109,1)</f>
         <v>36251</v>
@@ -6210,7 +6209,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -6237,7 +6236,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>94</v>
@@ -6257,7 +6256,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>36312</v>
@@ -6284,7 +6283,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>95</v>
@@ -6304,7 +6303,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>36342</v>
@@ -6331,7 +6330,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>97</v>
@@ -6351,7 +6350,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>36373</v>
@@ -6376,7 +6375,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -6401,7 +6400,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -6426,7 +6425,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -6451,7 +6450,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -6476,7 +6475,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>85</v>
@@ -6496,7 +6495,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="49"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>49</v>
       </c>
@@ -6514,7 +6513,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>36526</v>
@@ -6539,7 +6538,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -6566,7 +6565,7 @@
         <v>36560</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>75</v>
@@ -6588,7 +6587,7 @@
         <v>36567</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>103</v>
@@ -6608,7 +6607,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36586</v>
@@ -6633,7 +6632,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -6658,7 +6657,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -6683,7 +6682,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -6708,7 +6707,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="49"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -6733,7 +6732,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -6760,7 +6759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>110</v>
@@ -6780,7 +6779,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>36770</v>
@@ -6801,7 +6800,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -6826,7 +6825,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -6851,7 +6850,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -6876,7 +6875,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>112</v>
@@ -6896,7 +6895,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>50</v>
       </c>
@@ -6914,7 +6913,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A140,1)</f>
         <v>36892</v>
@@ -6941,7 +6940,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>113</v>
@@ -6961,7 +6960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>89</v>
@@ -6981,7 +6980,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="49"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A143,1)</f>
         <v>36923</v>
@@ -7008,7 +7007,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>75</v>
@@ -7030,7 +7029,7 @@
         <v>36937</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>89</v>
@@ -7050,7 +7049,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f>EDATE(A146,1)</f>
         <v>36951</v>
@@ -7077,7 +7076,7 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>116</v>
@@ -7097,7 +7096,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="49"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>36982</v>
@@ -7124,7 +7123,7 @@
         <v>37001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>75</v>
@@ -7146,7 +7145,7 @@
         <v>37011</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>117</v>
@@ -7166,7 +7165,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>37012</v>
@@ -7193,7 +7192,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>74</v>
@@ -7215,7 +7214,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>118</v>
@@ -7235,7 +7234,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>37043</v>
@@ -7260,7 +7259,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -7285,7 +7284,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -7310,7 +7309,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -7335,7 +7334,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -7360,7 +7359,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -7387,7 +7386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>95</v>
@@ -7407,7 +7406,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A162,1)</f>
         <v>37226</v>
@@ -7432,7 +7431,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>51</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>37257</v>
@@ -7475,7 +7474,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -7500,7 +7499,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -7525,7 +7524,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -7552,7 +7551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>129</v>
@@ -7572,7 +7571,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>81</v>
@@ -7592,7 +7591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>37377</v>
@@ -7617,7 +7616,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7644,7 +7643,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>131</v>
@@ -7664,7 +7663,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>37438</v>
@@ -7691,7 +7690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7712,7 +7711,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="49"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7733,7 +7732,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7754,7 +7753,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7781,7 +7780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A254" si="2">EDATE(A179,1)</f>
         <v>37591</v>
@@ -7806,7 +7805,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>52</v>
       </c>
@@ -7824,7 +7823,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="49"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>37622</v>
@@ -7845,7 +7844,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="49"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>37653</v>
@@ -7872,7 +7871,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>37681</v>
@@ -7893,7 +7892,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -7918,7 +7917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -7939,7 +7938,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -7960,7 +7959,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -7981,7 +7980,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -8002,7 +8001,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
@@ -8023,7 +8022,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -8044,7 +8043,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>37926</v>
@@ -8071,7 +8070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -8096,7 +8095,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>53</v>
       </c>
@@ -8114,7 +8113,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37987</v>
@@ -8135,7 +8134,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>38018</v>
@@ -8156,7 +8155,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>38047</v>
@@ -8177,7 +8176,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -8198,7 +8197,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -8219,7 +8218,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -8240,7 +8239,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -8261,7 +8260,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -8282,7 +8281,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -8309,7 +8308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8331,7 +8330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38261</v>
@@ -8352,7 +8351,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -8377,7 +8376,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>84</v>
@@ -8399,7 +8398,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>38322</v>
@@ -8420,7 +8419,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>54</v>
       </c>
@@ -8438,7 +8437,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>38353</v>
@@ -8459,7 +8458,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -8480,7 +8479,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -8501,7 +8500,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="49"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -8522,7 +8521,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -8543,7 +8542,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -8564,7 +8563,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -8585,7 +8584,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -8610,7 +8609,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -8631,7 +8630,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -8652,7 +8651,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -8679,7 +8678,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>145</v>
@@ -8701,7 +8700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -8728,7 +8727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>124</v>
@@ -8748,7 +8747,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="48" t="s">
         <v>55</v>
       </c>
@@ -8766,7 +8765,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="49"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A222,1)</f>
         <v>38718</v>
@@ -8793,7 +8792,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8815,7 +8814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>38749</v>
@@ -8836,7 +8835,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -8857,7 +8856,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -8884,7 +8883,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -8909,7 +8908,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -8934,7 +8933,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -8955,7 +8954,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -8976,7 +8975,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -9003,7 +9002,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -9024,7 +9023,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -9045,7 +9044,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -9066,7 +9065,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>56</v>
       </c>
@@ -9084,7 +9083,7 @@
       <c r="J238" s="12"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39083</v>
@@ -9105,7 +9104,7 @@
       <c r="J239" s="12"/>
       <c r="K239" s="50"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -9126,7 +9125,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -9147,7 +9146,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -9168,7 +9167,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -9189,7 +9188,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -9210,7 +9209,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -9231,7 +9230,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -9252,7 +9251,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9273,7 +9272,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="49"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -9294,7 +9293,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9315,7 +9314,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -9340,7 +9339,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>57</v>
       </c>
@@ -9358,7 +9357,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39448</v>
@@ -9379,7 +9378,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -9400,7 +9399,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -9421,7 +9420,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A388" si="3">EDATE(A254,1)</f>
         <v>39539</v>
@@ -9442,7 +9441,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -9463,7 +9462,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -9484,7 +9483,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -9505,7 +9504,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -9526,7 +9525,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -9551,7 +9550,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -9578,7 +9577,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>74</v>
@@ -9600,7 +9599,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>81</v>
@@ -9620,7 +9619,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>172</v>
@@ -9640,7 +9639,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="49"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A261,1)</f>
         <v>39753</v>
@@ -9667,7 +9666,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>85</v>
@@ -9689,7 +9688,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>75</v>
@@ -9711,7 +9710,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>175</v>
@@ -9731,7 +9730,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A265,1)</f>
         <v>39783</v>
@@ -9758,7 +9757,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>176</v>
@@ -9778,7 +9777,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>58</v>
       </c>
@@ -9796,7 +9795,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A269,1)</f>
         <v>39814</v>
@@ -9823,7 +9822,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>154</v>
@@ -9843,7 +9842,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="49"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39845</v>
@@ -9870,7 +9869,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>74</v>
@@ -9892,7 +9891,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>81</v>
@@ -9912,7 +9911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>155</v>
@@ -9932,7 +9931,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A274,1)</f>
         <v>39873</v>
@@ -9957,7 +9956,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="3"/>
         <v>39904</v>
@@ -9984,7 +9983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>81</v>
@@ -10004,7 +10003,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>161</v>
@@ -10024,7 +10023,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39934</v>
@@ -10051,7 +10050,7 @@
         <v>39969</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>154</v>
@@ -10071,7 +10070,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>39965</v>
@@ -10096,7 +10095,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -10123,7 +10122,7 @@
         <v>40014</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>92</v>
@@ -10143,7 +10142,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="49"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>40026</v>
@@ -10168,7 +10167,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="3"/>
         <v>40057</v>
@@ -10195,7 +10194,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>165</v>
@@ -10215,7 +10214,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40087</v>
@@ -10242,7 +10241,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>75</v>
@@ -10264,7 +10263,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>166</v>
@@ -10284,7 +10283,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A290,1)</f>
         <v>40118</v>
@@ -10311,7 +10310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>75</v>
@@ -10333,7 +10332,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>168</v>
@@ -10353,7 +10352,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A293,1)</f>
         <v>40148</v>
@@ -10380,7 +10379,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>170</v>
@@ -10400,7 +10399,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
         <v>59</v>
       </c>
@@ -10418,7 +10417,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>40179</v>
@@ -10443,7 +10442,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10470,7 +10469,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>132</v>
@@ -10492,7 +10491,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>81</v>
@@ -10512,7 +10511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>177</v>
@@ -10532,7 +10531,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40238</v>
@@ -10557,7 +10556,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="3"/>
         <v>40269</v>
@@ -10584,7 +10583,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>74</v>
@@ -10606,7 +10605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>181</v>
@@ -10626,7 +10625,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A305,1)</f>
         <v>40299</v>
@@ -10651,7 +10650,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="3"/>
         <v>40330</v>
@@ -10678,7 +10677,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>185</v>
@@ -10698,7 +10697,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40360</v>
@@ -10725,7 +10724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>75</v>
@@ -10747,7 +10746,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>187</v>
@@ -10767,7 +10766,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>40391</v>
@@ -10794,7 +10793,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>188</v>
@@ -10814,7 +10813,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40422</v>
@@ -10841,7 +10840,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>81</v>
@@ -10861,7 +10860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>171</v>
@@ -10881,7 +10880,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A316,1)</f>
         <v>40452</v>
@@ -10908,7 +10907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>75</v>
@@ -10930,7 +10929,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>180</v>
@@ -10950,7 +10949,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>40483</v>
@@ -10977,7 +10976,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>124</v>
@@ -10999,7 +10998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>75</v>
@@ -11021,7 +11020,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>177</v>
@@ -11041,7 +11040,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>40513</v>
@@ -11068,7 +11067,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>192</v>
@@ -11088,7 +11087,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>75</v>
@@ -11110,7 +11109,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="48" t="s">
         <v>60</v>
       </c>
@@ -11128,7 +11127,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A326,1)</f>
         <v>40544</v>
@@ -11155,7 +11154,7 @@
         <v>40557</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>75</v>
@@ -11177,7 +11176,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>193</v>
@@ -11197,7 +11196,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>40575</v>
@@ -11224,7 +11223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>75</v>
@@ -11246,7 +11245,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>194</v>
@@ -11266,7 +11265,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A333,1)</f>
         <v>40603</v>
@@ -11293,7 +11292,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -11320,7 +11319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -11345,7 +11344,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>75</v>
@@ -11367,7 +11366,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -11387,7 +11386,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>40695</v>
@@ -11414,7 +11413,7 @@
         <v>40711</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>75</v>
@@ -11436,7 +11435,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>201</v>
@@ -11456,7 +11455,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>40725</v>
@@ -11481,7 +11480,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11508,7 +11507,7 @@
         <v>40771</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>75</v>
@@ -11530,7 +11529,7 @@
         <v>40778</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>204</v>
@@ -11550,7 +11549,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40787</v>
@@ -11575,7 +11574,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="49"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -11602,7 +11601,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>75</v>
@@ -11624,7 +11623,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>206</v>
@@ -11644,7 +11643,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>40848</v>
@@ -11671,7 +11670,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>208</v>
@@ -11691,7 +11690,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="49"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>40878</v>
@@ -11718,7 +11717,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>209</v>
@@ -11738,7 +11737,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>61</v>
       </c>
@@ -11756,7 +11755,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>40909</v>
@@ -11783,7 +11782,7 @@
         <v>40927</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>210</v>
@@ -11803,7 +11802,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40940</v>
@@ -11830,7 +11829,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>211</v>
@@ -11850,7 +11849,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="49"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>40969</v>
@@ -11875,7 +11874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>111</v>
@@ -11895,7 +11894,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>41000</v>
@@ -11922,7 +11921,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>74</v>
@@ -11944,7 +11943,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>213</v>
@@ -11964,7 +11963,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>41030</v>
@@ -11991,7 +11990,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>185</v>
@@ -12011,7 +12010,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41061</v>
@@ -12036,7 +12035,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -12057,7 +12056,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12084,7 +12083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12105,7 +12104,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12126,7 +12125,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="49"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -12147,7 +12146,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -12172,7 +12171,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>62</v>
       </c>
@@ -12190,7 +12189,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>41275</v>
@@ -12217,7 +12216,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -12244,7 +12243,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>162</v>
@@ -12266,7 +12265,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>81</v>
@@ -12286,7 +12285,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>220</v>
@@ -12306,7 +12305,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A377,1)</f>
         <v>41334</v>
@@ -12331,7 +12330,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -12358,7 +12357,7 @@
         <v>41367</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>222</v>
@@ -12378,7 +12377,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="49"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>41395</v>
@@ -12405,7 +12404,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>74</v>
@@ -12427,7 +12426,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>223</v>
@@ -12447,7 +12446,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>41426</v>
@@ -12472,7 +12471,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -12499,7 +12498,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>226</v>
@@ -12519,7 +12518,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="49"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>41487</v>
@@ -12546,7 +12545,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>91</v>
@@ -12566,7 +12565,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>41518</v>
@@ -12593,7 +12592,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>81</v>
@@ -12613,7 +12612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>213</v>
@@ -12633,7 +12632,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41548</v>
@@ -12660,7 +12659,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>213</v>
@@ -12680,7 +12679,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="49"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41579</v>
@@ -12705,7 +12704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>73</v>
@@ -12727,7 +12726,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>228</v>
@@ -12747,7 +12746,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="49"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41609</v>
@@ -12772,7 +12771,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="48" t="s">
         <v>63</v>
       </c>
@@ -12790,7 +12789,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41640</v>
@@ -12815,7 +12814,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="49"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A500" si="4">EDATE(A402,1)</f>
         <v>41671</v>
@@ -12842,7 +12841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>234</v>
@@ -12862,7 +12861,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>41699</v>
@@ -12889,7 +12888,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>105</v>
@@ -12909,7 +12908,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="49"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>41730</v>
@@ -12936,7 +12935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>203</v>
@@ -12956,7 +12955,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="49"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>41760</v>
@@ -12981,7 +12980,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -13006,7 +13005,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13033,7 +13032,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>94</v>
@@ -13053,7 +13052,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>41852</v>
@@ -13078,7 +13077,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="49"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13105,7 +13104,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>141</v>
@@ -13125,7 +13124,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>124</v>
@@ -13147,7 +13146,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>75</v>
@@ -13169,7 +13168,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>110</v>
@@ -13189,7 +13188,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="49"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A414,1)</f>
         <v>41913</v>
@@ -13216,7 +13215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>243</v>
@@ -13236,7 +13235,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="49"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41944</v>
@@ -13261,7 +13260,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -13288,7 +13287,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>81</v>
@@ -13308,7 +13307,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>245</v>
@@ -13328,7 +13327,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="48" t="s">
         <v>64</v>
       </c>
@@ -13346,7 +13345,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="49"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A422,1)</f>
         <v>42005</v>
@@ -13371,7 +13370,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="49"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="4"/>
         <v>42036</v>
@@ -13398,7 +13397,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>162</v>
@@ -13420,7 +13419,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>42064</v>
@@ -13447,7 +13446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>198</v>
@@ -13469,7 +13468,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>250</v>
@@ -13491,7 +13490,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>251</v>
@@ -13515,7 +13514,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>42095</v>
@@ -13536,7 +13535,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13561,7 +13560,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="49"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="4"/>
         <v>42156</v>
@@ -13582,7 +13581,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="49"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="4"/>
         <v>42186</v>
@@ -13609,7 +13608,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -13636,7 +13635,7 @@
         <v>42233</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13663,7 +13662,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>255</v>
@@ -13685,7 +13684,7 @@
       </c>
       <c r="K439" s="49"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42278</v>
@@ -13712,7 +13711,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>75</v>
@@ -13734,7 +13733,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>42309</v>
@@ -13761,7 +13760,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>256</v>
@@ -13783,7 +13782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>42339</v>
@@ -13810,7 +13809,7 @@
         <v>42352</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="48" t="s">
         <v>65</v>
       </c>
@@ -13828,7 +13827,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>42370</v>
@@ -13853,7 +13852,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>81</v>
@@ -13873,7 +13872,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A446,1)</f>
         <v>42401</v>
@@ -13900,7 +13899,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>81</v>
@@ -13920,7 +13919,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>42430</v>
@@ -13947,7 +13946,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="4"/>
         <v>42461</v>
@@ -13974,7 +13973,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>84</v>
@@ -13996,7 +13995,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>115</v>
@@ -14018,7 +14017,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>42491</v>
@@ -14045,7 +14044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>75</v>
@@ -14067,7 +14066,7 @@
         <v>42514</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42522</v>
@@ -14088,7 +14087,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14115,7 +14114,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14142,7 +14141,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14169,7 +14168,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>134</v>
@@ -14191,7 +14190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f>EDATE(A459,1)</f>
         <v>42644</v>
@@ -14218,7 +14217,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" si="4"/>
         <v>42675</v>
@@ -14245,7 +14244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14272,7 +14271,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>84</v>
@@ -14294,7 +14293,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>66</v>
       </c>
@@ -14312,7 +14311,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42736</v>
@@ -14333,7 +14332,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="49"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -14354,7 +14353,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -14379,7 +14378,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -14404,7 +14403,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="4"/>
         <v>42856</v>
@@ -14425,7 +14424,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="49"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -14446,7 +14445,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="49"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -14467,7 +14466,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -14488,7 +14487,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="49"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -14513,7 +14512,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>275</v>
@@ -14533,7 +14532,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>75</v>
@@ -14555,7 +14554,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A474,1)</f>
         <v>43009</v>
@@ -14576,7 +14575,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f t="shared" si="4"/>
         <v>43040</v>
@@ -14603,7 +14602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>115</v>
@@ -14625,7 +14624,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>75</v>
@@ -14647,7 +14646,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>75</v>
@@ -14669,7 +14668,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>43070</v>
@@ -14696,7 +14695,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>124</v>
@@ -14716,7 +14715,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="49"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
         <v>67</v>
       </c>
@@ -14734,7 +14733,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="49"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A482,1)</f>
         <v>43101</v>
@@ -14759,7 +14758,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>81</v>
@@ -14779,7 +14778,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>81</v>
@@ -14799,7 +14798,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A485,1)</f>
         <v>43132</v>
@@ -14820,7 +14819,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -14847,7 +14846,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="4"/>
         <v>43191</v>
@@ -14874,7 +14873,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>75</v>
@@ -14896,7 +14895,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>75</v>
@@ -14918,7 +14917,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>43221</v>
@@ -14939,7 +14938,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="4"/>
         <v>43252</v>
@@ -14966,7 +14965,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -14987,7 +14986,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="49"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -15014,7 +15013,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>84</v>
@@ -15036,7 +15035,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>43344</v>
@@ -15057,7 +15056,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -15084,7 +15083,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -15105,7 +15104,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" ref="A501:A574" si="5">EDATE(A500,1)</f>
         <v>43435</v>
@@ -15132,7 +15131,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>115</v>
@@ -15154,7 +15153,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>162</v>
@@ -15174,7 +15173,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
         <v>68</v>
       </c>
@@ -15192,7 +15191,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A501,1)</f>
         <v>43466</v>
@@ -15217,7 +15216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -15244,7 +15243,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -15271,7 +15270,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>75</v>
@@ -15293,7 +15292,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A507,1)</f>
         <v>43556</v>
@@ -15318,7 +15317,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -15345,7 +15344,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>75</v>
@@ -15367,7 +15366,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>43617</v>
@@ -15392,7 +15391,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>75</v>
@@ -15414,7 +15413,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43647</v>
@@ -15441,7 +15440,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="5"/>
         <v>43678</v>
@@ -15462,7 +15461,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -15489,7 +15488,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>115</v>
@@ -15511,7 +15510,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>43739</v>
@@ -15538,7 +15537,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>134</v>
@@ -15560,7 +15559,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43770</v>
@@ -15587,7 +15586,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>75</v>
@@ -15609,7 +15608,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>43800</v>
@@ -15636,7 +15635,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
         <v>69</v>
       </c>
@@ -15654,7 +15653,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>43831</v>
@@ -15679,7 +15678,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>290</v>
@@ -15699,7 +15698,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>43862</v>
@@ -15726,7 +15725,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>75</v>
@@ -15748,7 +15747,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>81</v>
@@ -15768,7 +15767,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A526,1)</f>
         <v>43891</v>
@@ -15789,7 +15788,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -15810,7 +15809,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -15831,7 +15830,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="49"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -15852,7 +15851,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -15873,7 +15872,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -15894,7 +15893,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -15915,7 +15914,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="49"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -15936,7 +15935,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -15957,7 +15956,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -15984,7 +15983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>84</v>
@@ -16006,7 +16005,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="48" t="s">
         <v>70</v>
       </c>
@@ -16024,7 +16023,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A538,1)</f>
         <v>44197</v>
@@ -16045,7 +16044,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -16070,7 +16069,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -16091,7 +16090,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -16112,7 +16111,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -16133,7 +16132,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -16154,7 +16153,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -16179,7 +16178,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -16200,7 +16199,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -16227,7 +16226,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -16254,7 +16253,7 @@
         <v>44503</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>115</v>
@@ -16276,7 +16275,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>44501</v>
@@ -16297,7 +16296,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -16324,7 +16323,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="48" t="s">
         <v>71</v>
       </c>
@@ -16342,7 +16341,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44562</v>
@@ -16363,7 +16362,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -16384,7 +16383,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -16409,7 +16408,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="5"/>
         <v>44652</v>
@@ -16430,7 +16429,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f t="shared" si="5"/>
         <v>44682</v>
@@ -16457,7 +16456,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="5"/>
         <v>44713</v>
@@ -16478,7 +16477,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="5"/>
         <v>44743</v>
@@ -16499,7 +16498,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f t="shared" si="5"/>
         <v>44774</v>
@@ -16526,7 +16525,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f t="shared" si="5"/>
         <v>44805</v>
@@ -16547,7 +16546,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="5"/>
         <v>44835</v>
@@ -16568,7 +16567,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="5"/>
         <v>44866</v>
@@ -16595,7 +16594,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="5"/>
         <v>44896</v>
@@ -16622,7 +16621,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>162</v>
@@ -16642,7 +16641,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="48" t="s">
         <v>72</v>
       </c>
@@ -16660,7 +16659,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f>EDATE(A566,1)</f>
         <v>44927</v>
@@ -16681,7 +16680,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="5"/>
         <v>44958</v>
@@ -16702,7 +16701,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f t="shared" si="5"/>
         <v>44986</v>
@@ -16727,7 +16726,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>81</v>
@@ -16747,7 +16746,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>45017</v>
@@ -16774,7 +16773,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <f t="shared" si="5"/>
         <v>45047</v>
@@ -16795,20 +16794,22 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45078</v>
       </c>
       <c r="B575" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C575" s="13"/>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H575" s="39">
         <v>1</v>
@@ -16819,11 +16820,13 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45108</v>
       </c>
-      <c r="B576" s="20"/>
+      <c r="B576" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
@@ -16832,12 +16835,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H576" s="39"/>
+      <c r="H576" s="39">
+        <v>1</v>
+      </c>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
-    </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K576" s="49">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45139</v>
       </c>
@@ -16855,7 +16862,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45170</v>
       </c>
@@ -16873,7 +16880,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45200</v>
       </c>
@@ -16891,7 +16898,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45231</v>
       </c>
@@ -16909,7 +16916,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45261</v>
       </c>
@@ -16927,7 +16934,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45292</v>
       </c>
@@ -16945,7 +16952,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45323</v>
       </c>
@@ -16963,7 +16970,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45352</v>
       </c>
@@ -16981,7 +16988,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45383</v>
       </c>
@@ -16999,7 +17006,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45413</v>
       </c>
@@ -17017,7 +17024,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45444</v>
       </c>
@@ -17035,7 +17042,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45474</v>
       </c>
@@ -17053,7 +17060,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45505</v>
       </c>
@@ -17071,7 +17078,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45536</v>
       </c>
@@ -17089,7 +17096,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45566</v>
       </c>
@@ -17107,7 +17114,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45597</v>
       </c>
@@ -17125,7 +17132,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45627</v>
       </c>
@@ -17143,7 +17150,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45658</v>
       </c>
@@ -17161,7 +17168,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45689</v>
       </c>
@@ -17179,7 +17186,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45717</v>
       </c>
@@ -17197,7 +17204,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45748</v>
       </c>
@@ -17215,7 +17222,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45778</v>
       </c>
@@ -17233,7 +17240,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45809</v>
       </c>
@@ -17251,7 +17258,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17267,7 +17274,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17283,7 +17290,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17299,7 +17306,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17315,7 +17322,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17331,7 +17338,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17347,7 +17354,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17363,7 +17370,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17379,7 +17386,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17395,7 +17402,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17411,7 +17418,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17427,7 +17434,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17443,7 +17450,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="48"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17459,7 +17466,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17475,7 +17482,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17491,7 +17498,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17507,7 +17514,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17523,7 +17530,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17539,7 +17546,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17555,7 +17562,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17571,7 +17578,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17587,7 +17594,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17603,7 +17610,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17619,7 +17626,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17635,7 +17642,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17651,7 +17658,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="48"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17667,7 +17674,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17683,7 +17690,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17699,7 +17706,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17715,7 +17722,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17731,7 +17738,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17747,7 +17754,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17763,7 +17770,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17779,7 +17786,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17795,7 +17802,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17811,7 +17818,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17827,7 +17834,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17843,7 +17850,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17859,7 +17866,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17875,7 +17882,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17891,7 +17898,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17907,7 +17914,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17923,7 +17930,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17939,7 +17946,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17955,7 +17962,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17971,7 +17978,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17987,7 +17994,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18003,7 +18010,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18019,7 +18026,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18035,7 +18042,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18051,7 +18058,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18067,7 +18074,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18083,7 +18090,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18099,7 +18106,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18112,7 +18119,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18125,7 +18132,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18138,7 +18145,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18151,7 +18158,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18164,7 +18171,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18177,7 +18184,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18190,7 +18197,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18203,7 +18210,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18216,7 +18223,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18229,7 +18236,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18242,7 +18249,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18255,7 +18262,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18268,7 +18275,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18281,7 +18288,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18294,7 +18301,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18307,7 +18314,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18320,7 +18327,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18333,7 +18340,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18346,7 +18353,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18359,7 +18366,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18372,7 +18379,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18385,7 +18392,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18398,7 +18405,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18411,7 +18418,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18424,7 +18431,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18437,7 +18444,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18450,7 +18457,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18463,7 +18470,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18476,7 +18483,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18489,7 +18496,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18502,7 +18509,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18518,7 +18525,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18534,7 +18541,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18550,7 +18557,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18566,7 +18573,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18582,7 +18589,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18598,7 +18605,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18614,7 +18621,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18630,7 +18637,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18646,7 +18653,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41"/>
       <c r="B693" s="15"/>
       <c r="C693" s="42"/>
@@ -18677,10 +18684,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18703,7 +18710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18711,21 +18718,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -18738,7 +18745,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18767,7 +18774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -18789,17 +18796,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -18823,10 +18830,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>301.64</v>
+        <v>303.14</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -18854,7 +18861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18880,7 +18887,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18906,7 +18913,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18932,7 +18939,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18958,7 +18965,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18984,7 +18991,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19010,7 +19017,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19036,7 +19043,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19056,7 +19063,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19076,7 +19083,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19096,7 +19103,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19117,7 +19124,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19138,7 +19145,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19159,7 +19166,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19180,7 +19187,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19201,7 +19208,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19222,7 +19229,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19243,7 +19250,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19264,7 +19271,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19285,7 +19292,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19306,7 +19313,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19327,7 +19334,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19348,7 +19355,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19369,7 +19376,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19390,7 +19397,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19411,7 +19418,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19432,7 +19439,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19453,7 +19460,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19474,7 +19481,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19495,7 +19502,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19516,7 +19523,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19525,7 +19532,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19534,7 +19541,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19543,7 +19550,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19552,7 +19559,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19561,7 +19568,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19570,7 +19577,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19579,7 +19586,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19588,7 +19595,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19597,7 +19604,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19606,7 +19613,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19615,7 +19622,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19624,7 +19631,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19633,7 +19640,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19642,7 +19649,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19651,7 +19658,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19660,7 +19667,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19669,7 +19676,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19678,7 +19685,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19687,7 +19694,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19696,7 +19703,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19705,7 +19712,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19714,7 +19721,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19723,7 +19730,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19732,7 +19739,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19741,7 +19748,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19750,7 +19757,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19759,7 +19766,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19768,7 +19775,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19777,7 +19784,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
